--- a/conductivity sensor data.xlsx
+++ b/conductivity sensor data.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keiran\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keiran\Documents\Master's Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AD837F-0017-40E1-98F4-46AD92A497DE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11357" windowHeight="12909" activeTab="1" xr2:uid="{F537F745-65B4-41CF-807A-090BFDF241AA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11357" windowHeight="12909" activeTab="2" xr2:uid="{F537F745-65B4-41CF-807A-090BFDF241AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Sonde (uS/cm)</t>
   </si>
@@ -79,6 +81,48 @@
   </si>
   <si>
     <t>1.52 Mhz</t>
+  </si>
+  <si>
+    <t>Corrected for COM6 1.52 Mhz</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Lo left</t>
+  </si>
+  <si>
+    <t>Lo right</t>
+  </si>
+  <si>
+    <t>Hi left</t>
+  </si>
+  <si>
+    <t>Hi right</t>
+  </si>
+  <si>
+    <t>y = 3.757046 + (502234800 - 3.757046)/(1 + (x/2058.614)^55.55366)</t>
+  </si>
+  <si>
+    <t>y = 19.58425 + (1321755000 - 19.58425)/(1 + (x/1157.921)^32.49883)</t>
+  </si>
+  <si>
+    <t>y = 11830440000 + (821.1938 - 11830440000)/(1 + (x/2322.141)^83.12922)</t>
+  </si>
+  <si>
+    <t>y = 14109300000 + (799.2355 - 14109300000)/(1 + (x/2950.753)^267.1165)</t>
+  </si>
+  <si>
+    <t>blehhh</t>
+  </si>
+  <si>
+    <t>LO baseline</t>
+  </si>
+  <si>
+    <t>Subtract</t>
   </si>
 </sst>
 </file>
@@ -1893,6 +1937,755 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="288587760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LO (baseline adj)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1278</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5820</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7710</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9720</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15120</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18820</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1833.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1833</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1871</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1893</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1923</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1945.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDC7-4140-977D-D9724901DF56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1278</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5820</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7710</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9720</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15120</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18820</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1933.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1879</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1838</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1839</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDC7-4140-977D-D9724901DF56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="437977936"/>
+        <c:axId val="437982200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="437977936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437982200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="437982200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437977936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6866,6 +7659,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8735,6 +9568,522 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13822,6 +15171,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>310243</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>310243</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40CDAE44-0759-459F-861D-D5F676A67F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14122,7 +15512,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -14778,10 +16168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DEA685-341D-407F-9E9C-1558A917D65F}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -15367,6 +16757,154 @@
         <v>2066</v>
       </c>
       <c r="F45">
+        <v>8870</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E50">
+        <f>E31-115</f>
+        <v>2035</v>
+      </c>
+      <c r="F50">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E51">
+        <f t="shared" ref="E51:E64" si="0">E32-115</f>
+        <v>2036</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1890</v>
+      </c>
+      <c r="F52">
+        <v>182.6</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1883</v>
+      </c>
+      <c r="F53">
+        <v>198.4</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>1857</v>
+      </c>
+      <c r="F54">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>1809</v>
+      </c>
+      <c r="F55">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>1805</v>
+      </c>
+      <c r="F56" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>1813</v>
+      </c>
+      <c r="F57">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>1811</v>
+      </c>
+      <c r="F58">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>1830</v>
+      </c>
+      <c r="F59">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>1885</v>
+      </c>
+      <c r="F60">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>1907</v>
+      </c>
+      <c r="F61">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>1925</v>
+      </c>
+      <c r="F62">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>1928</v>
+      </c>
+      <c r="F63">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>1951</v>
+      </c>
+      <c r="F64">
         <v>8870</v>
       </c>
     </row>
@@ -15377,4 +16915,1121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF75780E-4225-4F25-9871-243291983484}">
+  <dimension ref="A1:P46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>6.2</v>
+      </c>
+      <c r="B2">
+        <v>2828</v>
+      </c>
+      <c r="C2">
+        <v>2038</v>
+      </c>
+      <c r="D2">
+        <v>6.2</v>
+      </c>
+      <c r="E2">
+        <f>B2-850</f>
+        <v>1978</v>
+      </c>
+      <c r="F2">
+        <f>B2+C2</f>
+        <v>4866</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>48.7</v>
+      </c>
+      <c r="B3">
+        <v>2772</v>
+      </c>
+      <c r="C3">
+        <v>1992</v>
+      </c>
+      <c r="D3">
+        <v>48.7</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E39" si="0">B3-850</f>
+        <v>1922</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F39" si="1">B3+C3</f>
+        <v>4764</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>117.8</v>
+      </c>
+      <c r="B4">
+        <v>2713</v>
+      </c>
+      <c r="C4">
+        <v>1933.5</v>
+      </c>
+      <c r="D4">
+        <v>117.8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1863</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>4646.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>146.5</v>
+      </c>
+      <c r="B5">
+        <v>2699</v>
+      </c>
+      <c r="C5">
+        <v>1914</v>
+      </c>
+      <c r="D5">
+        <v>146.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1849</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>4613</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>177.5</v>
+      </c>
+      <c r="B6">
+        <v>2689</v>
+      </c>
+      <c r="C6">
+        <v>1896</v>
+      </c>
+      <c r="D6">
+        <v>177.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1839</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>198.4</v>
+      </c>
+      <c r="B7">
+        <v>2683.5</v>
+      </c>
+      <c r="C7">
+        <v>1886</v>
+      </c>
+      <c r="D7">
+        <v>198.4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1833.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4569.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>221</v>
+      </c>
+      <c r="B8">
+        <v>2680</v>
+      </c>
+      <c r="C8">
+        <v>1879</v>
+      </c>
+      <c r="D8">
+        <v>221</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1830</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>250</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2676</v>
+      </c>
+      <c r="C9">
+        <v>1867</v>
+      </c>
+      <c r="D9">
+        <v>250</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1826</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>277</v>
+      </c>
+      <c r="B10">
+        <v>2677</v>
+      </c>
+      <c r="C10">
+        <v>1860</v>
+      </c>
+      <c r="D10">
+        <v>277</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1827</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>319</v>
+      </c>
+      <c r="B11">
+        <v>2678</v>
+      </c>
+      <c r="C11">
+        <v>1852</v>
+      </c>
+      <c r="D11">
+        <v>319</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1828</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>351</v>
+      </c>
+      <c r="B12">
+        <v>2679</v>
+      </c>
+      <c r="C12">
+        <v>1845</v>
+      </c>
+      <c r="D12">
+        <v>351</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1829</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>386</v>
+      </c>
+      <c r="B13">
+        <v>2678</v>
+      </c>
+      <c r="C13">
+        <v>1838</v>
+      </c>
+      <c r="D13">
+        <v>386</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1828</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>420</v>
+      </c>
+      <c r="B14">
+        <v>2683</v>
+      </c>
+      <c r="C14">
+        <v>1836</v>
+      </c>
+      <c r="D14">
+        <v>420</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1833</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>458</v>
+      </c>
+      <c r="B15">
+        <v>2684</v>
+      </c>
+      <c r="C15">
+        <v>1832</v>
+      </c>
+      <c r="D15">
+        <v>458</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1834</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>494</v>
+      </c>
+      <c r="B16">
+        <v>2690</v>
+      </c>
+      <c r="C16">
+        <v>1832</v>
+      </c>
+      <c r="D16">
+        <v>494</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1840</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>539</v>
+      </c>
+      <c r="B17">
+        <v>2691</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1826</v>
+      </c>
+      <c r="D17">
+        <v>539</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1841</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4517</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2676</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1826</v>
+      </c>
+      <c r="P17">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>569</v>
+      </c>
+      <c r="B18">
+        <v>2695</v>
+      </c>
+      <c r="C18">
+        <v>1829</v>
+      </c>
+      <c r="D18">
+        <v>569</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1845</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>4524</v>
+      </c>
+      <c r="O18">
+        <v>1829</v>
+      </c>
+      <c r="P18">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>597</v>
+      </c>
+      <c r="B19">
+        <v>2698</v>
+      </c>
+      <c r="C19">
+        <v>1827</v>
+      </c>
+      <c r="D19">
+        <v>597</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1848</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>4525</v>
+      </c>
+      <c r="O19">
+        <v>1827</v>
+      </c>
+      <c r="P19">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>630</v>
+      </c>
+      <c r="B20">
+        <v>2701</v>
+      </c>
+      <c r="C20">
+        <v>1830</v>
+      </c>
+      <c r="D20">
+        <v>630</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1851</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>4531</v>
+      </c>
+      <c r="O20">
+        <v>1830</v>
+      </c>
+      <c r="P20">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>668</v>
+      </c>
+      <c r="B21">
+        <v>2705</v>
+      </c>
+      <c r="C21">
+        <v>1830</v>
+      </c>
+      <c r="D21">
+        <v>668</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1855</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>4535</v>
+      </c>
+      <c r="K21">
+        <v>2678</v>
+      </c>
+      <c r="L21">
+        <v>386</v>
+      </c>
+      <c r="O21">
+        <v>1830</v>
+      </c>
+      <c r="P21">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>711</v>
+      </c>
+      <c r="B22">
+        <v>2707</v>
+      </c>
+      <c r="C22">
+        <v>1831</v>
+      </c>
+      <c r="D22">
+        <v>711</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1857</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>4538</v>
+      </c>
+      <c r="O22">
+        <v>1831</v>
+      </c>
+      <c r="P22">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>769</v>
+      </c>
+      <c r="B23">
+        <v>2713</v>
+      </c>
+      <c r="C23">
+        <v>1834</v>
+      </c>
+      <c r="D23">
+        <v>769</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1863</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>4547</v>
+      </c>
+      <c r="K23">
+        <v>2684</v>
+      </c>
+      <c r="L23">
+        <v>458</v>
+      </c>
+      <c r="O23">
+        <v>1834</v>
+      </c>
+      <c r="P23">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>829</v>
+      </c>
+      <c r="B24">
+        <v>2717</v>
+      </c>
+      <c r="C24">
+        <v>1836</v>
+      </c>
+      <c r="D24">
+        <v>829</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1867</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>4553</v>
+      </c>
+      <c r="O24">
+        <v>1836</v>
+      </c>
+      <c r="P24">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>909</v>
+      </c>
+      <c r="B25">
+        <v>2721</v>
+      </c>
+      <c r="C25">
+        <v>1839</v>
+      </c>
+      <c r="D25">
+        <v>909</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1871</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>4560</v>
+      </c>
+      <c r="K25">
+        <v>2691</v>
+      </c>
+      <c r="L25">
+        <v>539</v>
+      </c>
+      <c r="O25">
+        <v>1839</v>
+      </c>
+      <c r="P25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1032</v>
+      </c>
+      <c r="B26">
+        <v>2730</v>
+      </c>
+      <c r="C26">
+        <v>1848</v>
+      </c>
+      <c r="D26">
+        <v>1032</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1880</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>4578</v>
+      </c>
+      <c r="O26">
+        <v>1848</v>
+      </c>
+      <c r="P26">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1278</v>
+      </c>
+      <c r="B27">
+        <v>2743</v>
+      </c>
+      <c r="C27">
+        <v>1862</v>
+      </c>
+      <c r="D27">
+        <v>1278</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1893</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>4605</v>
+      </c>
+      <c r="K27">
+        <v>2698</v>
+      </c>
+      <c r="L27">
+        <v>597</v>
+      </c>
+      <c r="O27">
+        <v>1862</v>
+      </c>
+      <c r="P27">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>1471</v>
+      </c>
+      <c r="B28">
+        <v>2749</v>
+      </c>
+      <c r="C28">
+        <v>1870</v>
+      </c>
+      <c r="D28">
+        <v>1471</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1899</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>1931</v>
+      </c>
+      <c r="B29">
+        <v>2763</v>
+      </c>
+      <c r="C29">
+        <v>1890</v>
+      </c>
+      <c r="D29">
+        <v>1931</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1913</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>4653</v>
+      </c>
+      <c r="K29">
+        <v>2705</v>
+      </c>
+      <c r="L29">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>2450</v>
+      </c>
+      <c r="B30">
+        <v>2773</v>
+      </c>
+      <c r="C30">
+        <v>1908</v>
+      </c>
+      <c r="D30">
+        <v>2450</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1923</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>4681</v>
+      </c>
+      <c r="O30">
+        <v>1908</v>
+      </c>
+      <c r="P30">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>2920</v>
+      </c>
+      <c r="B31">
+        <v>2778</v>
+      </c>
+      <c r="C31">
+        <v>1919</v>
+      </c>
+      <c r="D31">
+        <v>2920</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1928</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>4697</v>
+      </c>
+      <c r="K31">
+        <v>2713</v>
+      </c>
+      <c r="L31">
+        <v>769</v>
+      </c>
+      <c r="O31">
+        <v>1919</v>
+      </c>
+      <c r="P31">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>3850</v>
+      </c>
+      <c r="B32">
+        <v>2785</v>
+      </c>
+      <c r="C32">
+        <v>1932</v>
+      </c>
+      <c r="D32">
+        <v>3850</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1935</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>4717</v>
+      </c>
+      <c r="O32">
+        <v>1932</v>
+      </c>
+      <c r="P32">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>4900</v>
+      </c>
+      <c r="B33">
+        <v>2787</v>
+      </c>
+      <c r="C33">
+        <v>1939</v>
+      </c>
+      <c r="D33">
+        <v>4900</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1937</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>4726</v>
+      </c>
+      <c r="K33">
+        <v>2721</v>
+      </c>
+      <c r="L33">
+        <v>909</v>
+      </c>
+      <c r="O33">
+        <v>1939</v>
+      </c>
+      <c r="P33">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>5820</v>
+      </c>
+      <c r="B34">
+        <v>2792</v>
+      </c>
+      <c r="C34">
+        <v>1948</v>
+      </c>
+      <c r="D34">
+        <v>5820</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1942</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>4740</v>
+      </c>
+      <c r="O34">
+        <v>1948</v>
+      </c>
+      <c r="P34">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>7710</v>
+      </c>
+      <c r="B35">
+        <v>2795.5</v>
+      </c>
+      <c r="C35">
+        <v>1955</v>
+      </c>
+      <c r="D35">
+        <v>7710</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1945.5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>4750.5</v>
+      </c>
+      <c r="K35">
+        <v>2743</v>
+      </c>
+      <c r="L35">
+        <v>1278</v>
+      </c>
+      <c r="O35">
+        <v>1955</v>
+      </c>
+      <c r="P35">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>9720</v>
+      </c>
+      <c r="B36">
+        <v>2800</v>
+      </c>
+      <c r="C36">
+        <v>1963</v>
+      </c>
+      <c r="D36">
+        <v>9720</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1950</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>4763</v>
+      </c>
+      <c r="O36">
+        <v>1963</v>
+      </c>
+      <c r="P36">
+        <v>9720</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>12180</v>
+      </c>
+      <c r="B37">
+        <v>2801</v>
+      </c>
+      <c r="C37">
+        <v>1966</v>
+      </c>
+      <c r="D37">
+        <v>12180</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1951</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>4767</v>
+      </c>
+      <c r="K37">
+        <v>2763</v>
+      </c>
+      <c r="L37">
+        <v>1931</v>
+      </c>
+      <c r="O37">
+        <v>1966</v>
+      </c>
+      <c r="P37">
+        <v>12180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>15120</v>
+      </c>
+      <c r="B38">
+        <v>2802</v>
+      </c>
+      <c r="C38">
+        <v>1969</v>
+      </c>
+      <c r="D38">
+        <v>15120</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1952</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>4771</v>
+      </c>
+      <c r="O38">
+        <v>1969</v>
+      </c>
+      <c r="P38">
+        <v>15120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>18820</v>
+      </c>
+      <c r="B39">
+        <v>2804</v>
+      </c>
+      <c r="C39">
+        <v>1975</v>
+      </c>
+      <c r="D39">
+        <v>18820</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1954</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>4779</v>
+      </c>
+      <c r="K39">
+        <v>2778</v>
+      </c>
+      <c r="L39">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K41">
+        <v>2787</v>
+      </c>
+      <c r="L41">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K42">
+        <v>2792</v>
+      </c>
+      <c r="L42">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K44">
+        <v>2801</v>
+      </c>
+      <c r="L44">
+        <v>12180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K46">
+        <v>2804</v>
+      </c>
+      <c r="L46">
+        <v>18820</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>